--- a/Code/Results/Cases/Case_2_80/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_80/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.83484845334967</v>
+        <v>13.81973447939941</v>
       </c>
       <c r="C2">
-        <v>5.97656760517272</v>
+        <v>6.851500208941467</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.735080932493286</v>
+        <v>14.03494175726826</v>
       </c>
       <c r="F2">
-        <v>31.1485449872656</v>
+        <v>42.56847425922016</v>
       </c>
       <c r="G2">
-        <v>34.76528632670171</v>
+        <v>45.42824687196966</v>
       </c>
       <c r="H2">
-        <v>12.02686520205397</v>
+        <v>18.51602644380066</v>
       </c>
       <c r="I2">
-        <v>19.83427118115959</v>
+        <v>29.52213333879394</v>
       </c>
       <c r="J2">
-        <v>5.932282505319785</v>
+        <v>8.959534172934664</v>
       </c>
       <c r="K2">
-        <v>11.17092157503547</v>
+        <v>10.91865707036225</v>
       </c>
       <c r="L2">
-        <v>7.948613632408004</v>
+        <v>12.13910690196044</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.94172245320386</v>
+        <v>13.61852600825049</v>
       </c>
       <c r="C3">
-        <v>5.795719472133702</v>
+        <v>6.794156067259964</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.537832985645185</v>
+        <v>14.0324622594094</v>
       </c>
       <c r="F3">
-        <v>30.53952771334444</v>
+        <v>42.57776639116585</v>
       </c>
       <c r="G3">
-        <v>34.44404047836682</v>
+        <v>45.50580613379724</v>
       </c>
       <c r="H3">
-        <v>12.08117834170219</v>
+        <v>18.56781521643094</v>
       </c>
       <c r="I3">
-        <v>19.91938613087785</v>
+        <v>29.61013600299996</v>
       </c>
       <c r="J3">
-        <v>5.964580319863829</v>
+        <v>8.967133985197991</v>
       </c>
       <c r="K3">
-        <v>10.47277189479187</v>
+        <v>10.78465274997188</v>
       </c>
       <c r="L3">
-        <v>7.707288352455531</v>
+        <v>12.12475469688944</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.38761819767583</v>
+        <v>13.49629444749501</v>
       </c>
       <c r="C4">
-        <v>5.681849515695363</v>
+        <v>6.757987170090307</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.417987289331506</v>
+        <v>14.03281036958943</v>
       </c>
       <c r="F4">
-        <v>30.18330447196747</v>
+        <v>42.59275964916917</v>
       </c>
       <c r="G4">
-        <v>34.27944445447724</v>
+        <v>45.56504843852787</v>
       </c>
       <c r="H4">
-        <v>12.12199123845719</v>
+        <v>18.60250019668616</v>
       </c>
       <c r="I4">
-        <v>19.98549396129266</v>
+        <v>29.66931850493536</v>
       </c>
       <c r="J4">
-        <v>5.984831338483949</v>
+        <v>8.972044211809447</v>
       </c>
       <c r="K4">
-        <v>10.02085854173527</v>
+        <v>10.70369614789093</v>
       </c>
       <c r="L4">
-        <v>7.558716512038063</v>
+        <v>12.11771419422659</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.15559184962521</v>
+        <v>13.44687588348699</v>
       </c>
       <c r="C5">
-        <v>5.634753522401164</v>
+        <v>6.743010746399198</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.369524125013166</v>
+        <v>14.03342422168729</v>
       </c>
       <c r="F5">
-        <v>30.04265840827495</v>
+        <v>42.60120507607537</v>
       </c>
       <c r="G5">
-        <v>34.22032563956044</v>
+        <v>45.59210291821352</v>
       </c>
       <c r="H5">
-        <v>12.14042936018462</v>
+        <v>18.61735991233787</v>
       </c>
       <c r="I5">
-        <v>20.01577484010073</v>
+        <v>29.6947287156595</v>
       </c>
       <c r="J5">
-        <v>5.993194664685857</v>
+        <v>8.974106717869605</v>
       </c>
       <c r="K5">
-        <v>9.830852537403262</v>
+        <v>10.67107586279779</v>
       </c>
       <c r="L5">
-        <v>7.498154672909041</v>
+        <v>12.11529325530984</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.11669208704417</v>
+        <v>13.43869543874442</v>
       </c>
       <c r="C6">
-        <v>5.626892008025357</v>
+        <v>6.740509706070476</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.361501174086506</v>
+        <v>14.03355470339135</v>
       </c>
       <c r="F6">
-        <v>30.01957869810627</v>
+        <v>42.60274847289782</v>
       </c>
       <c r="G6">
-        <v>34.21098169814357</v>
+        <v>45.59677092421995</v>
       </c>
       <c r="H6">
-        <v>12.14359809939256</v>
+        <v>18.61987114791632</v>
       </c>
       <c r="I6">
-        <v>20.02100075344539</v>
+        <v>29.69902609467317</v>
       </c>
       <c r="J6">
-        <v>5.994590233163434</v>
+        <v>8.974452919163161</v>
       </c>
       <c r="K6">
-        <v>9.798949146011193</v>
+        <v>10.6656827347965</v>
       </c>
       <c r="L6">
-        <v>7.488099863206599</v>
+        <v>12.11491839669034</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.38451403765694</v>
+        <v>13.49562630336874</v>
       </c>
       <c r="C7">
-        <v>5.681217142297967</v>
+        <v>6.757786148393641</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.417332104393045</v>
+        <v>14.03281673507341</v>
       </c>
       <c r="F7">
-        <v>30.18138930325104</v>
+        <v>42.5928640914312</v>
       </c>
       <c r="G7">
-        <v>34.27861529596379</v>
+        <v>45.56540152423215</v>
       </c>
       <c r="H7">
-        <v>12.12223267787794</v>
+        <v>18.60269766399973</v>
       </c>
       <c r="I7">
-        <v>19.98588899271569</v>
+        <v>29.66965596359282</v>
       </c>
       <c r="J7">
-        <v>5.984943673570308</v>
+        <v>8.972071777997332</v>
       </c>
       <c r="K7">
-        <v>10.01831972654071</v>
+        <v>10.70325467121032</v>
       </c>
       <c r="L7">
-        <v>7.557899712798691</v>
+        <v>12.1176797269206</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.51492511881528</v>
+        <v>13.75012294929635</v>
       </c>
       <c r="C8">
-        <v>5.914808004548598</v>
+        <v>6.831929401680825</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.666840895861174</v>
+        <v>14.03369962009584</v>
       </c>
       <c r="F8">
-        <v>30.93492006743629</v>
+        <v>42.56975085535301</v>
       </c>
       <c r="G8">
-        <v>34.64759653364433</v>
+        <v>45.45257213997888</v>
       </c>
       <c r="H8">
-        <v>12.04399988947023</v>
+        <v>18.53328381959142</v>
       </c>
       <c r="I8">
-        <v>19.8606588650804</v>
+        <v>29.55140703212744</v>
       </c>
       <c r="J8">
-        <v>5.943334871227264</v>
+        <v>8.962104094246815</v>
       </c>
       <c r="K8">
-        <v>10.93501997017584</v>
+        <v>10.87220060838584</v>
       </c>
       <c r="L8">
-        <v>7.865534807235202</v>
+        <v>12.13379214253872</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.69640418760679</v>
+        <v>14.25686562088248</v>
       </c>
       <c r="C9">
-        <v>6.349837489012569</v>
+        <v>6.969544756225366</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.163757199221841</v>
+        <v>14.05019618698364</v>
       </c>
       <c r="F9">
-        <v>32.54997013082787</v>
+        <v>42.59807404266843</v>
       </c>
       <c r="G9">
-        <v>35.64068640565961</v>
+        <v>45.32389246444409</v>
       </c>
       <c r="H9">
-        <v>11.95311501420427</v>
+        <v>18.42008921091102</v>
       </c>
       <c r="I9">
-        <v>19.7314937108753</v>
+        <v>29.36045036788814</v>
       </c>
       <c r="J9">
-        <v>5.86481887238643</v>
+        <v>8.94448301073545</v>
       </c>
       <c r="K9">
-        <v>12.54882743345321</v>
+        <v>11.21232300809525</v>
       </c>
       <c r="L9">
-        <v>8.462336471713398</v>
+        <v>12.17932463663682</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.14176887558152</v>
+        <v>14.63022633506535</v>
       </c>
       <c r="C10">
-        <v>6.654905380570717</v>
+        <v>7.065692713333474</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.530450282018325</v>
+        <v>14.07120759383872</v>
       </c>
       <c r="F10">
-        <v>33.81579322812723</v>
+        <v>42.66365168208365</v>
       </c>
       <c r="G10">
-        <v>36.54762353243024</v>
+        <v>45.28623619088423</v>
       </c>
       <c r="H10">
-        <v>11.92922232365502</v>
+        <v>18.35093210900564</v>
       </c>
       <c r="I10">
-        <v>19.71690831682238</v>
+        <v>29.24521072792343</v>
       </c>
       <c r="J10">
-        <v>5.808629236870657</v>
+        <v>8.932696935380269</v>
       </c>
       <c r="K10">
-        <v>13.62387955767093</v>
+        <v>11.46533436110275</v>
       </c>
       <c r="L10">
-        <v>8.892894774254351</v>
+        <v>12.22109634027501</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.76602244303294</v>
+        <v>14.79955957400067</v>
       </c>
       <c r="C11">
-        <v>6.790508055275923</v>
+        <v>7.108312189367057</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.697040098646156</v>
+        <v>14.08267027411298</v>
       </c>
       <c r="F11">
-        <v>34.40791354455371</v>
+        <v>42.7031526164087</v>
       </c>
       <c r="G11">
-        <v>37.00115190019353</v>
+        <v>45.28152847264511</v>
       </c>
       <c r="H11">
-        <v>11.92875879760914</v>
+        <v>18.32251858036767</v>
       </c>
       <c r="I11">
-        <v>19.7298315867349</v>
+        <v>29.19824748409272</v>
       </c>
       <c r="J11">
-        <v>5.783299968049619</v>
+        <v>8.927584140963679</v>
       </c>
       <c r="K11">
-        <v>14.08938709361857</v>
+        <v>11.5806392575804</v>
       </c>
       <c r="L11">
-        <v>9.086354770809312</v>
+        <v>12.2418632270663</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.997705410466</v>
+        <v>14.86354800949102</v>
       </c>
       <c r="C12">
-        <v>6.841404164176414</v>
+        <v>7.124286504252404</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.760048683686765</v>
+        <v>14.08728219115262</v>
       </c>
       <c r="F12">
-        <v>34.63440418329299</v>
+        <v>42.71949427152097</v>
       </c>
       <c r="G12">
-        <v>37.1789598980555</v>
+        <v>45.28153573165257</v>
       </c>
       <c r="H12">
-        <v>11.93017483404774</v>
+        <v>18.3121977043101</v>
       </c>
       <c r="I12">
-        <v>19.7377197986596</v>
+        <v>29.18125056620057</v>
       </c>
       <c r="J12">
-        <v>5.773733451495739</v>
+        <v>8.925683606737962</v>
       </c>
       <c r="K12">
-        <v>14.26232215503833</v>
+        <v>11.62429328248188</v>
       </c>
       <c r="L12">
-        <v>9.159219554798531</v>
+        <v>12.24997685435138</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.94801654240757</v>
+        <v>14.84977388074192</v>
       </c>
       <c r="C13">
-        <v>6.830462863591589</v>
+        <v>7.120853538149374</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.74648265460843</v>
+        <v>14.08627691182759</v>
       </c>
       <c r="F13">
-        <v>34.58552559929058</v>
+        <v>42.71591339597418</v>
       </c>
       <c r="G13">
-        <v>37.14039323567636</v>
+        <v>45.28145451485958</v>
       </c>
       <c r="H13">
-        <v>11.92979751974099</v>
+        <v>18.3144009678545</v>
       </c>
       <c r="I13">
-        <v>19.73588479280264</v>
+        <v>29.18487612270274</v>
       </c>
       <c r="J13">
-        <v>5.775792792225676</v>
+        <v>8.926091341966909</v>
       </c>
       <c r="K13">
-        <v>14.22522542165883</v>
+        <v>11.61489264569615</v>
       </c>
       <c r="L13">
-        <v>9.143545051795664</v>
+        <v>12.24821840380244</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.78517707149187</v>
+        <v>14.80482697634517</v>
       </c>
       <c r="C14">
-        <v>6.794704369910344</v>
+        <v>7.109629729738685</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.70222559669071</v>
+        <v>14.08304427863561</v>
       </c>
       <c r="F14">
-        <v>34.42650201192002</v>
+        <v>42.70446937096102</v>
       </c>
       <c r="G14">
-        <v>37.01565770854125</v>
+        <v>45.28149317998314</v>
       </c>
       <c r="H14">
-        <v>11.92884283832703</v>
+        <v>18.32166067966599</v>
       </c>
       <c r="I14">
-        <v>19.73041947848215</v>
+        <v>29.19683335313162</v>
       </c>
       <c r="J14">
-        <v>5.782512470735422</v>
+        <v>8.927427071132389</v>
       </c>
       <c r="K14">
-        <v>14.10368129218054</v>
+        <v>11.58423111249355</v>
       </c>
       <c r="L14">
-        <v>9.092357555110556</v>
+        <v>12.24252576089829</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.68482225701978</v>
+        <v>14.77727642373364</v>
       </c>
       <c r="C15">
-        <v>6.772742333549189</v>
+        <v>7.102733253227032</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.675105840192629</v>
+        <v>14.08109944165287</v>
       </c>
       <c r="F15">
-        <v>34.32938872904946</v>
+        <v>42.69763952095165</v>
       </c>
       <c r="G15">
-        <v>36.94004873126367</v>
+        <v>45.28175005617907</v>
       </c>
       <c r="H15">
-        <v>11.92846823380103</v>
+        <v>18.32616461454752</v>
       </c>
       <c r="I15">
-        <v>19.72746728136593</v>
+        <v>29.2042600542372</v>
       </c>
       <c r="J15">
-        <v>5.786631485524276</v>
+        <v>8.928249870177627</v>
       </c>
       <c r="K15">
-        <v>14.02879805853035</v>
+        <v>11.56544765293163</v>
       </c>
       <c r="L15">
-        <v>9.060951067637399</v>
+        <v>12.23907123972311</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.10030952556965</v>
+        <v>14.61914447871018</v>
       </c>
       <c r="C16">
-        <v>6.645979691434042</v>
+        <v>7.062884584645909</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.519554971272957</v>
+        <v>14.07049658420462</v>
       </c>
       <c r="F16">
-        <v>33.77741793285708</v>
+        <v>42.66126421223835</v>
       </c>
       <c r="G16">
-        <v>36.51882393540482</v>
+        <v>45.28679416287001</v>
       </c>
       <c r="H16">
-        <v>11.92947005260204</v>
+        <v>18.35285035657306</v>
       </c>
       <c r="I16">
-        <v>19.71647273914999</v>
+        <v>29.24838991843284</v>
       </c>
       <c r="J16">
-        <v>5.810288541684891</v>
+        <v>8.933036056885978</v>
       </c>
       <c r="K16">
-        <v>13.59298737089853</v>
+        <v>11.45779972367917</v>
       </c>
       <c r="L16">
-        <v>8.880199009003103</v>
+        <v>12.21977434039273</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.73326466475947</v>
+        <v>14.52196089188174</v>
       </c>
       <c r="C17">
-        <v>6.567402526594308</v>
+        <v>7.038149393538684</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.424040551799461</v>
+        <v>14.06447805220419</v>
       </c>
       <c r="F17">
-        <v>33.44291766269507</v>
+        <v>42.64142117075742</v>
       </c>
       <c r="G17">
-        <v>36.27103590918816</v>
+        <v>45.29307323274339</v>
       </c>
       <c r="H17">
-        <v>11.93281623409461</v>
+        <v>18.37000191288273</v>
       </c>
       <c r="I17">
-        <v>19.71486495142262</v>
+        <v>29.27686194865836</v>
       </c>
       <c r="J17">
-        <v>5.824855103631636</v>
+        <v>8.936035795601349</v>
       </c>
       <c r="K17">
-        <v>13.31963105131231</v>
+        <v>11.39178634148828</v>
       </c>
       <c r="L17">
-        <v>8.76866085957723</v>
+        <v>12.20838545839692</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.51901595384973</v>
+        <v>14.46601894903898</v>
       </c>
       <c r="C18">
-        <v>6.521907812378076</v>
+        <v>7.023817294113939</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.36908474523227</v>
+        <v>14.06119577803499</v>
       </c>
       <c r="F18">
-        <v>33.25205933299574</v>
+        <v>42.63091859936189</v>
       </c>
       <c r="G18">
-        <v>36.1323602001925</v>
+        <v>45.29785389863301</v>
       </c>
       <c r="H18">
-        <v>11.9357143293421</v>
+        <v>18.38015373734328</v>
       </c>
       <c r="I18">
-        <v>19.71576986479493</v>
+        <v>29.29375210292902</v>
       </c>
       <c r="J18">
-        <v>5.833255740293124</v>
+        <v>8.937784591371036</v>
       </c>
       <c r="K18">
-        <v>13.16018522071076</v>
+        <v>11.35383915390678</v>
       </c>
       <c r="L18">
-        <v>8.704283303090564</v>
+        <v>12.2020012401405</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.44593454660245</v>
+        <v>14.44707221444839</v>
       </c>
       <c r="C19">
-        <v>6.506452680684426</v>
+        <v>7.018946765269265</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.350475890029212</v>
+        <v>14.060115349941</v>
       </c>
       <c r="F19">
-        <v>33.18770448266002</v>
+        <v>42.62751919908624</v>
       </c>
       <c r="G19">
-        <v>36.08606187141415</v>
+        <v>45.29967321284863</v>
       </c>
       <c r="H19">
-        <v>11.93685992938235</v>
+        <v>18.38364019218672</v>
       </c>
       <c r="I19">
-        <v>19.7163850489768</v>
+        <v>29.29955900415402</v>
       </c>
       <c r="J19">
-        <v>5.836104126175396</v>
+        <v>8.93838073302866</v>
       </c>
       <c r="K19">
-        <v>13.10581737350583</v>
+        <v>11.34099587637986</v>
       </c>
       <c r="L19">
-        <v>8.682449347979123</v>
+        <v>12.19986834831314</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.77266107777323</v>
+        <v>14.53231130592726</v>
       </c>
       <c r="C20">
-        <v>6.575798160388994</v>
+        <v>7.040793399848226</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.434210463701531</v>
+        <v>14.06510018368081</v>
       </c>
       <c r="F20">
-        <v>33.47836725231577</v>
+        <v>42.64343929654854</v>
       </c>
       <c r="G20">
-        <v>36.29701406737092</v>
+        <v>45.29228378566602</v>
       </c>
       <c r="H20">
-        <v>11.93235860050409</v>
+        <v>18.36814642299136</v>
       </c>
       <c r="I20">
-        <v>19.71484543919072</v>
+        <v>29.27377786233775</v>
       </c>
       <c r="J20">
-        <v>5.823302213754366</v>
+        <v>8.935714045301504</v>
       </c>
       <c r="K20">
-        <v>13.34895961607099</v>
+        <v>11.39881159404815</v>
       </c>
       <c r="L20">
-        <v>8.780557822109003</v>
+        <v>12.20958063515303</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.83313415485044</v>
+        <v>14.81803309463847</v>
       </c>
       <c r="C21">
-        <v>6.805219775445617</v>
+        <v>7.112930936261687</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.715227337489154</v>
+        <v>14.08398644140537</v>
       </c>
       <c r="F21">
-        <v>34.47315009794676</v>
+        <v>42.70779327217026</v>
       </c>
       <c r="G21">
-        <v>37.05212954883819</v>
+        <v>45.28143322129513</v>
       </c>
       <c r="H21">
-        <v>11.92907927741942</v>
+        <v>18.31951641483289</v>
       </c>
       <c r="I21">
-        <v>19.73194202626543</v>
+        <v>29.19329984957981</v>
       </c>
       <c r="J21">
-        <v>5.780538124991634</v>
+        <v>8.92703377132255</v>
       </c>
       <c r="K21">
-        <v>14.13947209953144</v>
+        <v>11.59323771425225</v>
       </c>
       <c r="L21">
-        <v>9.107403615826005</v>
+        <v>12.24419108634803</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.49880735800863</v>
+        <v>15.00395872409679</v>
       </c>
       <c r="C22">
-        <v>6.952520062134454</v>
+        <v>7.15911492952083</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.898431942343224</v>
+        <v>14.09790941885148</v>
       </c>
       <c r="F22">
-        <v>35.1364889035457</v>
+        <v>42.75791233041177</v>
       </c>
       <c r="G22">
-        <v>37.58107815503674</v>
+        <v>45.28477581378901</v>
       </c>
       <c r="H22">
-        <v>11.93626001516378</v>
+        <v>18.29029131598346</v>
       </c>
       <c r="I22">
-        <v>19.76065811709639</v>
+        <v>29.14529115046694</v>
       </c>
       <c r="J22">
-        <v>5.752731474943498</v>
+        <v>8.921567948303826</v>
       </c>
       <c r="K22">
-        <v>14.6366584197644</v>
+        <v>11.72023377441398</v>
       </c>
       <c r="L22">
-        <v>9.318700664506263</v>
+        <v>12.26826414787342</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.1460077838431</v>
+        <v>14.90482043694721</v>
       </c>
       <c r="C23">
-        <v>6.874142638272968</v>
+        <v>7.134554950460073</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.800707136558398</v>
+        <v>14.09033482595378</v>
       </c>
       <c r="F23">
-        <v>34.78126730987194</v>
+        <v>42.73042797932624</v>
       </c>
       <c r="G23">
-        <v>37.29546976815581</v>
+        <v>45.28203622933411</v>
       </c>
       <c r="H23">
-        <v>11.93154184033498</v>
+        <v>18.30565509035845</v>
       </c>
       <c r="I23">
-        <v>19.74366503541563</v>
+        <v>29.1704938459629</v>
       </c>
       <c r="J23">
-        <v>5.767562289345219</v>
+        <v>8.92446626431574</v>
       </c>
       <c r="K23">
-        <v>14.37306581098754</v>
+        <v>11.65247303391345</v>
       </c>
       <c r="L23">
-        <v>9.206153447478339</v>
+        <v>12.25528435664999</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.75486002482394</v>
+        <v>14.52763209648478</v>
       </c>
       <c r="C24">
-        <v>6.572003490159528</v>
+        <v>7.039598391660198</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.429612778017086</v>
+        <v>14.06481836384289</v>
       </c>
       <c r="F24">
-        <v>33.46233596952417</v>
+        <v>42.64252408088937</v>
       </c>
       <c r="G24">
-        <v>36.2852575787969</v>
+        <v>45.29263704809618</v>
       </c>
       <c r="H24">
-        <v>11.93256246899219</v>
+        <v>18.36898438301623</v>
       </c>
       <c r="I24">
-        <v>19.71484857667197</v>
+        <v>29.2751705543332</v>
       </c>
       <c r="J24">
-        <v>5.824004193280198</v>
+        <v>8.935859433187659</v>
       </c>
       <c r="K24">
-        <v>13.33570730680374</v>
+        <v>11.39563545943213</v>
       </c>
       <c r="L24">
-        <v>8.775179988939639</v>
+        <v>12.20903978646037</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.13418344514358</v>
+        <v>14.11933399943709</v>
       </c>
       <c r="C25">
-        <v>6.234683940202423</v>
+        <v>6.93317151125405</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.028836747156971</v>
+        <v>14.04416339971036</v>
       </c>
       <c r="F25">
-        <v>32.09880510893669</v>
+        <v>42.58253569198573</v>
       </c>
       <c r="G25">
-        <v>35.34176345799073</v>
+        <v>45.34874179312601</v>
       </c>
       <c r="H25">
-        <v>11.97052903521189</v>
+        <v>18.44825373873537</v>
       </c>
       <c r="I25">
-        <v>19.75302977202056</v>
+        <v>29.40771643616787</v>
       </c>
       <c r="J25">
-        <v>5.885767571658953</v>
+        <v>8.949045264198638</v>
       </c>
       <c r="K25">
-        <v>12.1318076031349</v>
+        <v>11.11959965379881</v>
       </c>
       <c r="L25">
-        <v>8.302014696333218</v>
+        <v>12.16553222116168</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_80/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_80/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.81973447939941</v>
+        <v>13.83484845334968</v>
       </c>
       <c r="C2">
-        <v>6.851500208941467</v>
+        <v>5.97656760517283</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.03494175726826</v>
+        <v>8.735080932493249</v>
       </c>
       <c r="F2">
-        <v>42.56847425922016</v>
+        <v>31.14854498726547</v>
       </c>
       <c r="G2">
-        <v>45.42824687196966</v>
+        <v>34.76528632670129</v>
       </c>
       <c r="H2">
-        <v>18.51602644380066</v>
+        <v>12.02686520205387</v>
       </c>
       <c r="I2">
-        <v>29.52213333879394</v>
+        <v>19.83427118115941</v>
       </c>
       <c r="J2">
-        <v>8.959534172934664</v>
+        <v>5.932282505319614</v>
       </c>
       <c r="K2">
-        <v>10.91865707036225</v>
+        <v>11.17092157503548</v>
       </c>
       <c r="L2">
-        <v>12.13910690196044</v>
+        <v>7.948613632407928</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.61852600825049</v>
+        <v>12.94172245320386</v>
       </c>
       <c r="C3">
-        <v>6.794156067259964</v>
+        <v>5.795719472133702</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.0324622594094</v>
+        <v>8.537832985645178</v>
       </c>
       <c r="F3">
-        <v>42.57776639116585</v>
+        <v>30.53952771334443</v>
       </c>
       <c r="G3">
-        <v>45.50580613379724</v>
+        <v>34.44404047836676</v>
       </c>
       <c r="H3">
-        <v>18.56781521643094</v>
+        <v>12.0811783417023</v>
       </c>
       <c r="I3">
-        <v>29.61013600299996</v>
+        <v>19.91938613087786</v>
       </c>
       <c r="J3">
-        <v>8.967133985197991</v>
+        <v>5.964580319863829</v>
       </c>
       <c r="K3">
-        <v>10.78465274997188</v>
+        <v>10.47277189479184</v>
       </c>
       <c r="L3">
-        <v>12.12475469688944</v>
+        <v>7.707288352455525</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.49629444749501</v>
+        <v>12.38761819767586</v>
       </c>
       <c r="C4">
-        <v>6.757987170090307</v>
+        <v>5.68184951569547</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.03281036958943</v>
+        <v>8.417987289331506</v>
       </c>
       <c r="F4">
-        <v>42.59275964916917</v>
+        <v>30.1833044719677</v>
       </c>
       <c r="G4">
-        <v>45.56504843852787</v>
+        <v>34.27944445447748</v>
       </c>
       <c r="H4">
-        <v>18.60250019668616</v>
+        <v>12.12199123845726</v>
       </c>
       <c r="I4">
-        <v>29.66931850493536</v>
+        <v>19.9854939612928</v>
       </c>
       <c r="J4">
-        <v>8.972044211809447</v>
+        <v>5.984831338483984</v>
       </c>
       <c r="K4">
-        <v>10.70369614789093</v>
+        <v>10.02085854173525</v>
       </c>
       <c r="L4">
-        <v>12.11771419422659</v>
+        <v>7.558716512038083</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.44687588348699</v>
+        <v>12.1555918496252</v>
       </c>
       <c r="C5">
-        <v>6.743010746399198</v>
+        <v>5.634753522401048</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.03342422168729</v>
+        <v>8.369524125013211</v>
       </c>
       <c r="F5">
-        <v>42.60120507607537</v>
+        <v>30.04265840827508</v>
       </c>
       <c r="G5">
-        <v>45.59210291821352</v>
+        <v>34.22032563956076</v>
       </c>
       <c r="H5">
-        <v>18.61735991233787</v>
+        <v>12.1404293601847</v>
       </c>
       <c r="I5">
-        <v>29.6947287156595</v>
+        <v>20.01577484010079</v>
       </c>
       <c r="J5">
-        <v>8.974106717869605</v>
+        <v>5.993194664685855</v>
       </c>
       <c r="K5">
-        <v>10.67107586279779</v>
+        <v>9.830852537403258</v>
       </c>
       <c r="L5">
-        <v>12.11529325530984</v>
+        <v>7.498154672909097</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.43869543874442</v>
+        <v>12.11669208704419</v>
       </c>
       <c r="C6">
-        <v>6.740509706070476</v>
+        <v>5.626892008025357</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.03355470339135</v>
+        <v>8.361501174086508</v>
       </c>
       <c r="F6">
-        <v>42.60274847289782</v>
+        <v>30.01957869810639</v>
       </c>
       <c r="G6">
-        <v>45.59677092421995</v>
+        <v>34.21098169814362</v>
       </c>
       <c r="H6">
-        <v>18.61987114791632</v>
+        <v>12.14359809939253</v>
       </c>
       <c r="I6">
-        <v>29.69902609467317</v>
+        <v>20.02100075344539</v>
       </c>
       <c r="J6">
-        <v>8.974452919163161</v>
+        <v>5.994590233163298</v>
       </c>
       <c r="K6">
-        <v>10.6656827347965</v>
+        <v>9.798949146011166</v>
       </c>
       <c r="L6">
-        <v>12.11491839669034</v>
+        <v>7.488099863206589</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.49562630336874</v>
+        <v>12.38451403765694</v>
       </c>
       <c r="C7">
-        <v>6.757786148393641</v>
+        <v>5.681217142297842</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.03281673507341</v>
+        <v>8.417332104392958</v>
       </c>
       <c r="F7">
-        <v>42.5928640914312</v>
+        <v>30.18138930325103</v>
       </c>
       <c r="G7">
-        <v>45.56540152423215</v>
+        <v>34.27861529596397</v>
       </c>
       <c r="H7">
-        <v>18.60269766399973</v>
+        <v>12.12223267787794</v>
       </c>
       <c r="I7">
-        <v>29.66965596359282</v>
+        <v>19.98588899271568</v>
       </c>
       <c r="J7">
-        <v>8.972071777997332</v>
+        <v>5.984943673570277</v>
       </c>
       <c r="K7">
-        <v>10.70325467121032</v>
+        <v>10.01831972654069</v>
       </c>
       <c r="L7">
-        <v>12.1176797269206</v>
+        <v>7.55789971279865</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.75012294929635</v>
+        <v>13.51492511881527</v>
       </c>
       <c r="C8">
-        <v>6.831929401680825</v>
+        <v>5.914808004548597</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.03369962009584</v>
+        <v>8.666840895861187</v>
       </c>
       <c r="F8">
-        <v>42.56975085535301</v>
+        <v>30.93492006743636</v>
       </c>
       <c r="G8">
-        <v>45.45257213997888</v>
+        <v>34.64759653364443</v>
       </c>
       <c r="H8">
-        <v>18.53328381959142</v>
+        <v>12.04399988947035</v>
       </c>
       <c r="I8">
-        <v>29.55140703212744</v>
+        <v>19.86065886508048</v>
       </c>
       <c r="J8">
-        <v>8.962104094246815</v>
+        <v>5.943334871227365</v>
       </c>
       <c r="K8">
-        <v>10.87220060838584</v>
+        <v>10.93501997017585</v>
       </c>
       <c r="L8">
-        <v>12.13379214253872</v>
+        <v>7.865534807235209</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.25686562088248</v>
+        <v>15.69640418760685</v>
       </c>
       <c r="C9">
-        <v>6.969544756225366</v>
+        <v>6.349837489012451</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.05019618698364</v>
+        <v>9.163757199221806</v>
       </c>
       <c r="F9">
-        <v>42.59807404266843</v>
+        <v>32.5499701308277</v>
       </c>
       <c r="G9">
-        <v>45.32389246444409</v>
+        <v>35.64068640565921</v>
       </c>
       <c r="H9">
-        <v>18.42008921091102</v>
+        <v>11.95311501420412</v>
       </c>
       <c r="I9">
-        <v>29.36045036788814</v>
+        <v>19.73149371087505</v>
       </c>
       <c r="J9">
-        <v>8.94448301073545</v>
+        <v>5.864818872386328</v>
       </c>
       <c r="K9">
-        <v>11.21232300809525</v>
+        <v>12.54882743345328</v>
       </c>
       <c r="L9">
-        <v>12.17932463663682</v>
+        <v>8.462336471713384</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.63022633506535</v>
+        <v>17.14176887558155</v>
       </c>
       <c r="C10">
-        <v>7.065692713333474</v>
+        <v>6.6549053805707</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.07120759383872</v>
+        <v>9.530450282018336</v>
       </c>
       <c r="F10">
-        <v>42.66365168208365</v>
+        <v>33.81579322812716</v>
       </c>
       <c r="G10">
-        <v>45.28623619088423</v>
+        <v>36.54762353243021</v>
       </c>
       <c r="H10">
-        <v>18.35093210900564</v>
+        <v>11.92922232365497</v>
       </c>
       <c r="I10">
-        <v>29.24521072792343</v>
+        <v>19.71690831682234</v>
       </c>
       <c r="J10">
-        <v>8.932696935380269</v>
+        <v>5.808629236870757</v>
       </c>
       <c r="K10">
-        <v>11.46533436110275</v>
+        <v>13.62387955767096</v>
       </c>
       <c r="L10">
-        <v>12.22109634027501</v>
+        <v>8.892894774254358</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.79955957400067</v>
+        <v>17.76602244303301</v>
       </c>
       <c r="C11">
-        <v>7.108312189367057</v>
+        <v>6.790508055275669</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.08267027411298</v>
+        <v>9.697040098646154</v>
       </c>
       <c r="F11">
-        <v>42.7031526164087</v>
+        <v>34.40791354455383</v>
       </c>
       <c r="G11">
-        <v>45.28152847264511</v>
+        <v>37.00115190019385</v>
       </c>
       <c r="H11">
-        <v>18.32251858036767</v>
+        <v>11.92875879760917</v>
       </c>
       <c r="I11">
-        <v>29.19824748409272</v>
+        <v>19.72983158673498</v>
       </c>
       <c r="J11">
-        <v>8.927584140963679</v>
+        <v>5.78329996804965</v>
       </c>
       <c r="K11">
-        <v>11.5806392575804</v>
+        <v>14.08938709361858</v>
       </c>
       <c r="L11">
-        <v>12.2418632270663</v>
+        <v>9.086354770809333</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.86354800949102</v>
+        <v>17.99770541046598</v>
       </c>
       <c r="C12">
-        <v>7.124286504252404</v>
+        <v>6.841404164176406</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.08728219115262</v>
+        <v>9.760048683686799</v>
       </c>
       <c r="F12">
-        <v>42.71949427152097</v>
+        <v>34.63440418329309</v>
       </c>
       <c r="G12">
-        <v>45.28153573165257</v>
+        <v>37.17895989805554</v>
       </c>
       <c r="H12">
-        <v>18.3121977043101</v>
+        <v>11.93017483404792</v>
       </c>
       <c r="I12">
-        <v>29.18125056620057</v>
+        <v>19.73771979865976</v>
       </c>
       <c r="J12">
-        <v>8.925683606737962</v>
+        <v>5.773733451495806</v>
       </c>
       <c r="K12">
-        <v>11.62429328248188</v>
+        <v>14.26232215503828</v>
       </c>
       <c r="L12">
-        <v>12.24997685435138</v>
+        <v>9.159219554798566</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.84977388074192</v>
+        <v>17.94801654240754</v>
       </c>
       <c r="C13">
-        <v>7.120853538149374</v>
+        <v>6.830462863591694</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.08627691182759</v>
+        <v>9.746482654608421</v>
       </c>
       <c r="F13">
-        <v>42.71591339597418</v>
+        <v>34.58552559929054</v>
       </c>
       <c r="G13">
-        <v>45.28145451485958</v>
+        <v>37.14039323567639</v>
       </c>
       <c r="H13">
-        <v>18.3144009678545</v>
+        <v>11.92979751974102</v>
       </c>
       <c r="I13">
-        <v>29.18487612270274</v>
+        <v>19.73588479280271</v>
       </c>
       <c r="J13">
-        <v>8.926091341966909</v>
+        <v>5.775792792225642</v>
       </c>
       <c r="K13">
-        <v>11.61489264569615</v>
+        <v>14.2252254216588</v>
       </c>
       <c r="L13">
-        <v>12.24821840380244</v>
+        <v>9.143545051795645</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.80482697634517</v>
+        <v>17.78517707149188</v>
       </c>
       <c r="C14">
-        <v>7.109629729738685</v>
+        <v>6.79470436991043</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.08304427863561</v>
+        <v>9.702225596690598</v>
       </c>
       <c r="F14">
-        <v>42.70446937096102</v>
+        <v>34.42650201192007</v>
       </c>
       <c r="G14">
-        <v>45.28149317998314</v>
+        <v>37.01565770854149</v>
       </c>
       <c r="H14">
-        <v>18.32166067966599</v>
+        <v>11.92884283832698</v>
       </c>
       <c r="I14">
-        <v>29.19683335313162</v>
+        <v>19.73041947848222</v>
       </c>
       <c r="J14">
-        <v>8.927427071132389</v>
+        <v>5.78251247073532</v>
       </c>
       <c r="K14">
-        <v>11.58423111249355</v>
+        <v>14.10368129218056</v>
       </c>
       <c r="L14">
-        <v>12.24252576089829</v>
+        <v>9.092357555110505</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.77727642373364</v>
+        <v>17.68482225701978</v>
       </c>
       <c r="C15">
-        <v>7.102733253227032</v>
+        <v>6.772742333548972</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.08109944165287</v>
+        <v>9.675105840192616</v>
       </c>
       <c r="F15">
-        <v>42.69763952095165</v>
+        <v>34.32938872904951</v>
       </c>
       <c r="G15">
-        <v>45.28175005617907</v>
+        <v>36.94004873126362</v>
       </c>
       <c r="H15">
-        <v>18.32616461454752</v>
+        <v>11.9284682338011</v>
       </c>
       <c r="I15">
-        <v>29.2042600542372</v>
+        <v>19.72746728136588</v>
       </c>
       <c r="J15">
-        <v>8.928249870177627</v>
+        <v>5.786631485524241</v>
       </c>
       <c r="K15">
-        <v>11.56544765293163</v>
+        <v>14.02879805853037</v>
       </c>
       <c r="L15">
-        <v>12.23907123972311</v>
+        <v>9.060951067637424</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.61914447871018</v>
+        <v>17.10030952556966</v>
       </c>
       <c r="C16">
-        <v>7.062884584645909</v>
+        <v>6.645979691433931</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.07049658420462</v>
+        <v>9.519554971272971</v>
       </c>
       <c r="F16">
-        <v>42.66126421223835</v>
+        <v>33.77741793285723</v>
       </c>
       <c r="G16">
-        <v>45.28679416287001</v>
+        <v>36.51882393540503</v>
       </c>
       <c r="H16">
-        <v>18.35285035657306</v>
+        <v>11.92947005260212</v>
       </c>
       <c r="I16">
-        <v>29.24838991843284</v>
+        <v>19.71647273915013</v>
       </c>
       <c r="J16">
-        <v>8.933036056885978</v>
+        <v>5.810288541684923</v>
       </c>
       <c r="K16">
-        <v>11.45779972367917</v>
+        <v>13.59298737089853</v>
       </c>
       <c r="L16">
-        <v>12.21977434039273</v>
+        <v>8.880199009003116</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.52196089188174</v>
+        <v>16.73326466475953</v>
       </c>
       <c r="C17">
-        <v>7.038149393538684</v>
+        <v>6.567402526594194</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.06447805220419</v>
+        <v>9.424040551799498</v>
       </c>
       <c r="F17">
-        <v>42.64142117075742</v>
+        <v>33.44291766269503</v>
       </c>
       <c r="G17">
-        <v>45.29307323274339</v>
+        <v>36.27103590918793</v>
       </c>
       <c r="H17">
-        <v>18.37000191288273</v>
+        <v>11.93281623409446</v>
       </c>
       <c r="I17">
-        <v>29.27686194865836</v>
+        <v>19.71486495142241</v>
       </c>
       <c r="J17">
-        <v>8.936035795601349</v>
+        <v>5.824855103631534</v>
       </c>
       <c r="K17">
-        <v>11.39178634148828</v>
+        <v>13.3196310513123</v>
       </c>
       <c r="L17">
-        <v>12.20838545839692</v>
+        <v>8.768660859577286</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.46601894903898</v>
+        <v>16.51901595384976</v>
       </c>
       <c r="C18">
-        <v>7.023817294113939</v>
+        <v>6.521907812378164</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.06119577803499</v>
+        <v>9.369084745232312</v>
       </c>
       <c r="F18">
-        <v>42.63091859936189</v>
+        <v>33.25205933299584</v>
       </c>
       <c r="G18">
-        <v>45.29785389863301</v>
+        <v>36.13236020019265</v>
       </c>
       <c r="H18">
-        <v>18.38015373734328</v>
+        <v>11.9357143293421</v>
       </c>
       <c r="I18">
-        <v>29.29375210292902</v>
+        <v>19.71576986479501</v>
       </c>
       <c r="J18">
-        <v>8.937784591371036</v>
+        <v>5.833255740293088</v>
       </c>
       <c r="K18">
-        <v>11.35383915390678</v>
+        <v>13.16018522071075</v>
       </c>
       <c r="L18">
-        <v>12.2020012401405</v>
+        <v>8.704283303090577</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.44707221444839</v>
+        <v>16.44593454660245</v>
       </c>
       <c r="C19">
-        <v>7.018946765269265</v>
+        <v>6.506452680684305</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.060115349941</v>
+        <v>9.350475890029228</v>
       </c>
       <c r="F19">
-        <v>42.62751919908624</v>
+        <v>33.18770448266007</v>
       </c>
       <c r="G19">
-        <v>45.29967321284863</v>
+        <v>36.08606187141424</v>
       </c>
       <c r="H19">
-        <v>18.38364019218672</v>
+        <v>11.93685992938228</v>
       </c>
       <c r="I19">
-        <v>29.29955900415402</v>
+        <v>19.7163850489768</v>
       </c>
       <c r="J19">
-        <v>8.93838073302866</v>
+        <v>5.836104126175428</v>
       </c>
       <c r="K19">
-        <v>11.34099587637986</v>
+        <v>13.10581737350581</v>
       </c>
       <c r="L19">
-        <v>12.19986834831314</v>
+        <v>8.682449347979158</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.53231130592726</v>
+        <v>16.7726610777732</v>
       </c>
       <c r="C20">
-        <v>7.040793399848226</v>
+        <v>6.5757981603891</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.06510018368081</v>
+        <v>9.434210463701625</v>
       </c>
       <c r="F20">
-        <v>42.64343929654854</v>
+        <v>33.4783672523159</v>
       </c>
       <c r="G20">
-        <v>45.29228378566602</v>
+        <v>36.29701406737111</v>
       </c>
       <c r="H20">
-        <v>18.36814642299136</v>
+        <v>11.93235860050413</v>
       </c>
       <c r="I20">
-        <v>29.27377786233775</v>
+        <v>19.71484543919086</v>
       </c>
       <c r="J20">
-        <v>8.935714045301504</v>
+        <v>5.823302213754433</v>
       </c>
       <c r="K20">
-        <v>11.39881159404815</v>
+        <v>13.34895961607097</v>
       </c>
       <c r="L20">
-        <v>12.20958063515303</v>
+        <v>8.780557822109024</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.81803309463847</v>
+        <v>17.83313415485049</v>
       </c>
       <c r="C21">
-        <v>7.112930936261687</v>
+        <v>6.805219775445819</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.08398644140537</v>
+        <v>9.715227337489178</v>
       </c>
       <c r="F21">
-        <v>42.70779327217026</v>
+        <v>34.47315009794683</v>
       </c>
       <c r="G21">
-        <v>45.28143322129513</v>
+        <v>37.05212954883814</v>
       </c>
       <c r="H21">
-        <v>18.31951641483289</v>
+        <v>11.92907927741945</v>
       </c>
       <c r="I21">
-        <v>29.19329984957981</v>
+        <v>19.73194202626546</v>
       </c>
       <c r="J21">
-        <v>8.92703377132255</v>
+        <v>5.780538124991667</v>
       </c>
       <c r="K21">
-        <v>11.59323771425225</v>
+        <v>14.13947209953148</v>
       </c>
       <c r="L21">
-        <v>12.24419108634803</v>
+        <v>9.107403615826019</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.00395872409679</v>
+        <v>18.49880735800867</v>
       </c>
       <c r="C22">
-        <v>7.15911492952083</v>
+        <v>6.952520062134234</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.09790941885148</v>
+        <v>9.898431942343217</v>
       </c>
       <c r="F22">
-        <v>42.75791233041177</v>
+        <v>35.13648890354574</v>
       </c>
       <c r="G22">
-        <v>45.28477581378901</v>
+        <v>37.58107815503683</v>
       </c>
       <c r="H22">
-        <v>18.29029131598346</v>
+        <v>11.93626001516375</v>
       </c>
       <c r="I22">
-        <v>29.14529115046694</v>
+        <v>19.76065811709636</v>
       </c>
       <c r="J22">
-        <v>8.921567948303826</v>
+        <v>5.752731474943429</v>
       </c>
       <c r="K22">
-        <v>11.72023377441398</v>
+        <v>14.6366584197644</v>
       </c>
       <c r="L22">
-        <v>12.26826414787342</v>
+        <v>9.318700664506279</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.90482043694721</v>
+        <v>18.14600778384304</v>
       </c>
       <c r="C23">
-        <v>7.134554950460073</v>
+        <v>6.874142638272951</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.09033482595378</v>
+        <v>9.800707136558417</v>
       </c>
       <c r="F23">
-        <v>42.73042797932624</v>
+        <v>34.78126730987202</v>
       </c>
       <c r="G23">
-        <v>45.28203622933411</v>
+        <v>37.29546976815598</v>
       </c>
       <c r="H23">
-        <v>18.30565509035845</v>
+        <v>11.93154184033508</v>
       </c>
       <c r="I23">
-        <v>29.1704938459629</v>
+        <v>19.74366503541577</v>
       </c>
       <c r="J23">
-        <v>8.92446626431574</v>
+        <v>5.767562289345251</v>
       </c>
       <c r="K23">
-        <v>11.65247303391345</v>
+        <v>14.37306581098748</v>
       </c>
       <c r="L23">
-        <v>12.25528435664999</v>
+        <v>9.206153447478343</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.52763209648478</v>
+        <v>16.75486002482402</v>
       </c>
       <c r="C24">
-        <v>7.039598391660198</v>
+        <v>6.572003490159521</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.06481836384289</v>
+        <v>9.429612778017066</v>
       </c>
       <c r="F24">
-        <v>42.64252408088937</v>
+        <v>33.46233596952408</v>
       </c>
       <c r="G24">
-        <v>45.29263704809618</v>
+        <v>36.28525757879672</v>
       </c>
       <c r="H24">
-        <v>18.36898438301623</v>
+        <v>11.9325624689921</v>
       </c>
       <c r="I24">
-        <v>29.2751705543332</v>
+        <v>19.71484857667182</v>
       </c>
       <c r="J24">
-        <v>8.935859433187659</v>
+        <v>5.824004193280164</v>
       </c>
       <c r="K24">
-        <v>11.39563545943213</v>
+        <v>13.33570730680381</v>
       </c>
       <c r="L24">
-        <v>12.20903978646037</v>
+        <v>8.775179988939614</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.11933399943709</v>
+        <v>15.13418344514364</v>
       </c>
       <c r="C25">
-        <v>6.93317151125405</v>
+        <v>6.2346839402023</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.04416339971036</v>
+        <v>9.028836747156999</v>
       </c>
       <c r="F25">
-        <v>42.58253569198573</v>
+        <v>32.09880510893668</v>
       </c>
       <c r="G25">
-        <v>45.34874179312601</v>
+        <v>35.34176345799057</v>
       </c>
       <c r="H25">
-        <v>18.44825373873537</v>
+        <v>11.97052903521183</v>
       </c>
       <c r="I25">
-        <v>29.40771643616787</v>
+        <v>19.75302977202043</v>
       </c>
       <c r="J25">
-        <v>8.949045264198638</v>
+        <v>5.88576757165882</v>
       </c>
       <c r="K25">
-        <v>11.11959965379881</v>
+        <v>12.13180760313494</v>
       </c>
       <c r="L25">
-        <v>12.16553222116168</v>
+        <v>8.302014696333231</v>
       </c>
       <c r="M25">
         <v>0</v>
